--- a/data_ingest/ipeds/dictionaries/c2022dep.xlsx
+++ b/data_ingest/ipeds/dictionaries/c2022dep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhie\OneDrive - Northeastern University\ALY6980\ipedsllm\data_ingest\ipeds\dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47E6578-A2D4-4CB9-8ADF-CC94066F85A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0428FC38-44EB-4CD2-B7CA-998F48CF4730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10686,10 +10686,10 @@
     <t>TableDescription</t>
   </si>
   <si>
-    <t>"This table contains the number of programs offered by type of program, level of award (certificate or degree), and distance education status. Type of program is categorized according to the 2020 Classification of Instructional Programs (CIP), a detailed coding system for postsecondary instructional programs. Beginning in 2019-20, the less than 1-year certificate award level is divided into the following two award levels: certificates of less than 12 weeks and certificates of at least 12 weeks but less than 1 year. More detailed information on distance education was also added in 2019-20. This file contains multiple records per institution."</t>
-  </si>
-  <si>
     <t>c2022dep</t>
+  </si>
+  <si>
+    <t>"The table provides detailed information about various educational programs offered by institutions, categorized by the 2020 Classification of Instructional Programs (CIPCODE). It lists the unique identification number of each institution and breaks down the number of programs available at different award levels, including associate's, bachelor's, master's, and doctoral degrees, as well as various certificate programs. Additionally, the table indicates how many programs at each level can be completed entirely via distance education, and how many have some programs that can be completed this way. Specifically, it covers programs from certificates of less than 12 weeks to certificates of 2 years but less than 4 years, postbaccalaureate certificates, and post-master's certificates. This information is essential for understanding the scope and flexibility of distance education options available at different institutions across various fields of study."</t>
   </si>
 </sst>
 </file>
@@ -11127,7 +11127,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11149,10 +11149,10 @@
     </row>
     <row r="2" spans="1:10" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>3422</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>3421</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -11175,7 +11175,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B42"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -11243,7 +11243,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" s="16">
         <v>7</v>
@@ -13788,7 +13788,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -47727,6 +47727,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F249D8A6032D8F44A8695BAB1ED804A6" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="943002b5c5718a80327e0c74ae088035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9cb4ddb6-6161-49c1-81e7-d2838d0e0710" xmlns:ns3="45d1199b-1a3a-4a1d-85f2-919eb909bc88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad23bb0b9d0a66e149f1cd3daa302f8" ns2:_="" ns3:_="">
     <xsd:import namespace="9cb4ddb6-6161-49c1-81e7-d2838d0e0710"/>
@@ -47927,22 +47942,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6FABB1-F292-41A6-9977-BDDC74320913}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B285A94-F8FD-44A1-AD39-30F08D27F33B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE1B9326-09DF-4A1D-B152-3ABAD5561810}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -47959,21 +47976,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6FABB1-F292-41A6-9977-BDDC74320913}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B285A94-F8FD-44A1-AD39-30F08D27F33B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>